--- a/RestaurantMenu.xlsx
+++ b/RestaurantMenu.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dujaejeong/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B998F95-6EF6-244A-9609-E1913512C016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36F302B0-089C-46E2-A988-494213F97325}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12920" yWindow="0" windowWidth="12680" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="135">
   <si>
     <t>브라더 스테이크</t>
   </si>
@@ -467,6 +467,38 @@
   </si>
   <si>
     <t>치즈 참치 김밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>찌개찌개</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭매운탕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>부대찌개</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>버섯찌개</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>순두부찌개</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>된장찌개</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>알탕찌개</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>제육볶음</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -474,7 +506,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -884,19 +916,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="12" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.69140625" customWidth="1"/>
+    <col min="2" max="12" width="15.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>61</v>
       </c>
@@ -928,7 +960,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2">
         <v>3000</v>
@@ -958,7 +990,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -993,7 +1025,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4">
         <v>4500</v>
@@ -1026,7 +1058,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1061,7 +1093,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6">
         <v>3900</v>
@@ -1094,7 +1126,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1120,7 +1152,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8">
         <v>12000</v>
@@ -1144,7 +1176,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>42</v>
       </c>
@@ -1186,7 +1218,7 @@
       </c>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10">
         <v>6900</v>
@@ -1225,7 +1257,7 @@
         <v>16900</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -1254,7 +1286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12">
         <v>4500</v>
@@ -1281,7 +1313,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>62</v>
       </c>
@@ -1295,7 +1327,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14">
         <v>13000</v>
@@ -1307,7 +1339,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>66</v>
       </c>
@@ -1357,7 +1389,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16">
         <v>6000</v>
@@ -1405,7 +1437,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>82</v>
       </c>
@@ -1419,7 +1451,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18">
         <v>6900</v>
@@ -1431,7 +1463,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>86</v>
       </c>
@@ -1466,7 +1498,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20">
         <v>6000</v>
@@ -1499,7 +1531,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>97</v>
       </c>
@@ -1528,7 +1560,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22">
         <v>3500</v>
@@ -1555,7 +1587,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>106</v>
       </c>
@@ -1578,7 +1610,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="B24">
         <v>3500</v>
@@ -1599,7 +1631,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>113</v>
       </c>
@@ -1613,7 +1645,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
       <c r="B26">
         <v>6000</v>
@@ -1625,7 +1657,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>117</v>
       </c>
@@ -1657,7 +1689,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
       <c r="B28" s="4">
         <v>5500</v>
@@ -1685,6 +1717,68 @@
       </c>
       <c r="J28" s="4">
         <v>3500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30" s="2"/>
+      <c r="B30" s="4">
+        <v>6000</v>
+      </c>
+      <c r="C30" s="4">
+        <v>6000</v>
+      </c>
+      <c r="D30" s="4">
+        <v>6000</v>
+      </c>
+      <c r="E30" s="4">
+        <v>6000</v>
+      </c>
+      <c r="F30" s="4">
+        <v>6000</v>
+      </c>
+      <c r="G30" s="4">
+        <v>6000</v>
+      </c>
+      <c r="H30" s="4">
+        <v>6000</v>
+      </c>
+      <c r="I30" s="4">
+        <v>6000</v>
+      </c>
+      <c r="J30" s="4">
+        <v>6000</v>
       </c>
     </row>
   </sheetData>

--- a/RestaurantMenu.xlsx
+++ b/RestaurantMenu.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <fileSharing readOnlyRecommended="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dujaejeong/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36F302B0-089C-46E2-A988-494213F97325}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F083E82-170B-724B-9D35-354E2ED5AF9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="460" windowWidth="19420" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="149">
   <si>
     <t>브라더 스테이크</t>
   </si>
@@ -499,6 +498,62 @@
   </si>
   <si>
     <t>제육볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>일미닭갈비</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭갈비(중)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭갈비(대)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭갈비(특대)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>쭈꾸미(중)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>쭈꾸미(대)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>쭈꾸미(특대)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭-삼(중)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭-삼(대)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭-삼(특대)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>쭈-닭(삼)(중)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>쭈-닭(삼)(대)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>쭈-닭(삼)(특대)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -506,7 +561,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -916,19 +971,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="13.69140625" customWidth="1"/>
-    <col min="2" max="12" width="15.69140625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>61</v>
       </c>
@@ -960,8 +1015,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:16">
+      <c r="A2" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="B2">
         <v>3000</v>
       </c>
@@ -990,7 +1047,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1025,8 +1082,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:16">
+      <c r="A4" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="B4">
         <v>4500</v>
       </c>
@@ -1058,7 +1117,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1093,8 +1152,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:16">
+      <c r="A6" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="B6">
         <v>3900</v>
       </c>
@@ -1126,7 +1187,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1152,8 +1213,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:16">
+      <c r="A8" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="B8">
         <v>12000</v>
       </c>
@@ -1176,7 +1239,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16">
       <c r="A9" s="2" t="s">
         <v>42</v>
       </c>
@@ -1218,8 +1281,10 @@
       </c>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:16">
+      <c r="A10" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="B10">
         <v>6900</v>
       </c>
@@ -1257,7 +1322,7 @@
         <v>16900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -1286,8 +1351,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:16">
+      <c r="A12" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="B12">
         <v>4500</v>
       </c>
@@ -1313,7 +1380,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
         <v>62</v>
       </c>
@@ -1327,8 +1394,10 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A14" s="2"/>
+    <row r="14" spans="1:16">
+      <c r="A14" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="B14">
         <v>13000</v>
       </c>
@@ -1339,7 +1408,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
         <v>66</v>
       </c>
@@ -1389,8 +1458,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A16" s="2"/>
+    <row r="16" spans="1:16">
+      <c r="A16" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="B16">
         <v>6000</v>
       </c>
@@ -1437,7 +1508,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
         <v>82</v>
       </c>
@@ -1451,8 +1522,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="2"/>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="B18">
         <v>6900</v>
       </c>
@@ -1463,7 +1536,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
         <v>86</v>
       </c>
@@ -1498,8 +1571,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="2"/>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="B20">
         <v>6000</v>
       </c>
@@ -1531,7 +1606,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
         <v>97</v>
       </c>
@@ -1560,8 +1635,10 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="2"/>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="B22">
         <v>3500</v>
       </c>
@@ -1587,7 +1664,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
         <v>106</v>
       </c>
@@ -1610,8 +1687,10 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="2"/>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="B24">
         <v>3500</v>
       </c>
@@ -1631,7 +1710,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
         <v>113</v>
       </c>
@@ -1645,8 +1724,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="2"/>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="B26">
         <v>6000</v>
       </c>
@@ -1657,7 +1738,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13">
       <c r="A27" s="2" t="s">
         <v>117</v>
       </c>
@@ -1689,8 +1770,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="2"/>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="B28" s="4">
         <v>5500</v>
       </c>
@@ -1719,7 +1802,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13">
       <c r="A29" s="2" t="s">
         <v>127</v>
       </c>
@@ -1751,8 +1834,10 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="2"/>
+    <row r="30" spans="1:13">
+      <c r="A30" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="B30" s="4">
         <v>6000</v>
       </c>
@@ -1779,6 +1864,86 @@
       </c>
       <c r="J30" s="4">
         <v>6000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="2"/>
+      <c r="B32" s="4">
+        <v>14000</v>
+      </c>
+      <c r="C32" s="4">
+        <v>18000</v>
+      </c>
+      <c r="D32" s="4">
+        <v>22000</v>
+      </c>
+      <c r="E32" s="4">
+        <v>15000</v>
+      </c>
+      <c r="F32" s="4">
+        <v>19000</v>
+      </c>
+      <c r="G32" s="4">
+        <v>23000</v>
+      </c>
+      <c r="H32" s="4">
+        <v>16000</v>
+      </c>
+      <c r="I32" s="4">
+        <v>20000</v>
+      </c>
+      <c r="J32" s="4">
+        <v>24000</v>
+      </c>
+      <c r="K32" s="4">
+        <v>16000</v>
+      </c>
+      <c r="L32" s="4">
+        <v>20000</v>
+      </c>
+      <c r="M32" s="4">
+        <v>24000</v>
       </c>
     </row>
   </sheetData>

--- a/RestaurantMenu.xlsx
+++ b/RestaurantMenu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dujaejeong/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dujaejeong/Desktop/LIFE/OpenSourceProject/ERICA_MenuChooChun/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F083E82-170B-724B-9D35-354E2ED5AF9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8E0D95-09F1-B649-8C0E-48EB616CD127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="460" windowWidth="19420" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18120" yWindow="1380" windowWidth="19420" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="176">
   <si>
     <t>브라더 스테이크</t>
   </si>
@@ -505,10 +505,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>일미닭갈비</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>닭갈비(중)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -554,6 +550,118 @@
   </si>
   <si>
     <t>쭈-닭(삼)(특대)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>조박사 부대찌개</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>일미 닭갈비</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>부대전골(소)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>부대전골(대)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>앤의식탁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>뢰스티</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>매콤 소고기 냄비 우동</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>소고기 숙주 볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>크림치즈 포크</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>크림 콘치즈</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>아키포와 노가리</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>라끌레뜨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>까수엘라</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>나시고랭</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>치즈떡볶이그라탱 2인</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>알리고 스테이크</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이크 샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이크 덮밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>포크 스테이크</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>날치알 크림파스타</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>뽀빠이 투움바 파스타</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>감바스 파스타</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>소고기숙주라면</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기듬뿍덮밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>매운고기듬뿍덮밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치날치알덮밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>버섯듬뿍덮밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오징어치즈덮밥</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -971,16 +1079,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:AL36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AJ39" sqref="AJ39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="12" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1868,43 +1985,43 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1945,6 +2062,191 @@
       <c r="M32" s="4">
         <v>24000</v>
       </c>
+    </row>
+    <row r="33" spans="1:38">
+      <c r="A33" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38">
+      <c r="A34" s="2"/>
+      <c r="B34" s="4">
+        <v>7000</v>
+      </c>
+      <c r="C34" s="4">
+        <v>17000</v>
+      </c>
+      <c r="D34" s="4">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38">
+      <c r="A35" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38">
+      <c r="A36" s="2"/>
+      <c r="B36" s="4">
+        <v>12000</v>
+      </c>
+      <c r="C36" s="4">
+        <v>9900</v>
+      </c>
+      <c r="D36" s="4">
+        <v>7900</v>
+      </c>
+      <c r="E36" s="4">
+        <v>7900</v>
+      </c>
+      <c r="F36" s="4">
+        <v>6900</v>
+      </c>
+      <c r="G36" s="4">
+        <v>13000</v>
+      </c>
+      <c r="H36" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I36" s="4">
+        <v>12000</v>
+      </c>
+      <c r="J36" s="4">
+        <v>7500</v>
+      </c>
+      <c r="K36" s="4">
+        <v>14000</v>
+      </c>
+      <c r="L36" s="4">
+        <v>17900</v>
+      </c>
+      <c r="M36" s="4">
+        <v>14000</v>
+      </c>
+      <c r="N36" s="4">
+        <v>10500</v>
+      </c>
+      <c r="O36" s="4">
+        <v>8500</v>
+      </c>
+      <c r="P36" s="4">
+        <v>9500</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>9500</v>
+      </c>
+      <c r="R36" s="4">
+        <v>9500</v>
+      </c>
+      <c r="S36" s="4">
+        <v>6000</v>
+      </c>
+      <c r="T36" s="4">
+        <v>6900</v>
+      </c>
+      <c r="U36" s="4">
+        <v>6900</v>
+      </c>
+      <c r="V36" s="4">
+        <v>6500</v>
+      </c>
+      <c r="W36" s="4">
+        <v>6500</v>
+      </c>
+      <c r="X36" s="4">
+        <v>8900</v>
+      </c>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
